--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_5_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_5_a.xlsx
@@ -68,7 +68,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Speaking of which, Instructor Dobermann, why did you choose me…?
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Speaking of which, Instructor Dobermann, why did you choose me...?
 </t>
   </si>
   <si>
@@ -76,7 +76,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Y-yes, I do…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Y-yes, I do...
 </t>
   </si>
   <si>
